--- a/raw data/Crosswalk.xlsx
+++ b/raw data/Crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisgoodman/Dropbox/Data/Chicagoland/chi-local-legis/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1FFA6-24DE-3E47-B80E-1A4D6AA291A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061BDF11-E97A-3849-8667-F616AD947EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="27140" windowHeight="17040" xr2:uid="{BF4056F9-3E61-304E-917D-78D9CACF213F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>Kane</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Partially in Will County</t>
   </si>
 </sst>
 </file>
@@ -906,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D066EB2F-34BD-BD45-B7DC-086A15D52187}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,7 +928,7 @@
     <col min="13" max="13" width="13.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -965,8 +971,11 @@
       <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1138,8 +1147,11 @@
       <c r="N5" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1180,7 +1192,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1236,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1265,7 +1277,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1353,7 +1365,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1397,7 +1409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1441,7 +1453,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1497,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1567,7 +1579,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1608,7 +1620,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -1651,8 +1663,11 @@
       <c r="N17" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1696,7 +1711,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1740,7 +1755,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1781,7 +1796,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1822,7 +1837,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1866,7 +1881,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1907,7 +1922,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1951,7 +1966,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1992,7 +2007,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2036,7 +2051,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2080,7 +2095,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2121,7 +2136,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2162,7 +2177,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>86</v>
       </c>
